--- a/Input/Orient_Nextcare/benefits1.xlsx
+++ b/Input/Orient_Nextcare/benefits1.xlsx
@@ -303,7 +303,7 @@
     <t xml:space="preserve">orient_takaful_nextcare</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-09-23</t>
+    <t xml:space="preserve">2024-07-01</t>
   </si>
   <si>
     <t xml:space="preserve">UAE-AbuDhabi</t>
@@ -415,7 +415,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -436,17 +436,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -498,7 +487,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -519,11 +508,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,12 +532,12 @@
   <dimension ref="A1:BL7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BG3" activeCellId="0" sqref="BG3"/>
+      <selection pane="topLeft" activeCell="BH2" activeCellId="0" sqref="BH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="71.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="11.52"/>
   </cols>
@@ -898,7 +883,7 @@
       <c r="BH2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BI2" s="5" t="s">
+      <c r="BI2" s="3" t="s">
         <v>92</v>
       </c>
       <c r="BJ2" s="0" t="s">
@@ -907,7 +892,7 @@
       <c r="BK2" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BL2" s="5" t="s">
         <v>61</v>
       </c>
     </row>
